--- a/data_year/zb/建筑业/建设工程监理营业收入/工程项目管理与咨询服务收入.xlsx
+++ b/data_year/zb/建筑业/建设工程监理营业收入/工程项目管理与咨询服务收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,376 +523,108 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>246</v>
+      </c>
       <c r="C2" t="n">
-        <v>1014</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6</v>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>18693.87</v>
+        <v>120401</v>
       </c>
       <c r="F2" t="n">
-        <v>10519.24</v>
+        <v>276801</v>
       </c>
       <c r="G2" t="n">
-        <v>232419.76</v>
+        <v>1327413</v>
       </c>
       <c r="H2" t="n">
-        <v>4777.93</v>
+        <v>25396</v>
       </c>
       <c r="I2" t="n">
-        <v>110034.49</v>
+        <v>412116</v>
       </c>
       <c r="J2" t="n">
-        <v>205.21</v>
+        <v>11076</v>
       </c>
       <c r="K2" t="n">
-        <v>13090.81</v>
+        <v>9053</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09999999999999</v>
+        <v>1546</v>
       </c>
       <c r="M2" t="n">
-        <v>73190.42999999999</v>
+        <v>424451</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>19457</v>
+      </c>
+      <c r="O2" t="n">
+        <v>21743</v>
+      </c>
       <c r="P2" t="n">
-        <v>121.66</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>278</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>373.02</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>795.8200000000001</v>
+      </c>
       <c r="C3" t="n">
-        <v>183.64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38</v>
-      </c>
+        <v>1074.25</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>24345.33</v>
+        <v>137121.96</v>
       </c>
       <c r="F3" t="n">
-        <v>11296.15</v>
+        <v>376923.97</v>
       </c>
       <c r="G3" t="n">
-        <v>339763.57</v>
+        <v>1801064.16</v>
       </c>
       <c r="H3" t="n">
-        <v>2980.56</v>
+        <v>30431.68</v>
       </c>
       <c r="I3" t="n">
-        <v>110703.6</v>
+        <v>591143.38</v>
       </c>
       <c r="J3" t="n">
-        <v>201.43</v>
+        <v>12343.57</v>
       </c>
       <c r="K3" t="n">
-        <v>49624.59</v>
+        <v>101718.21</v>
       </c>
       <c r="L3" t="n">
-        <v>517</v>
+        <v>186.51</v>
       </c>
       <c r="M3" t="n">
-        <v>138777.59</v>
+        <v>464663.66</v>
       </c>
       <c r="N3" t="n">
-        <v>167.5</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
-        <v>331.9</v>
-      </c>
+        <v>27356</v>
+      </c>
+      <c r="O3" t="n">
+        <v>42690.14</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>129</v>
+        <v>11151.77</v>
       </c>
       <c r="R3" t="n">
-        <v>467.28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>127.58</v>
-      </c>
-      <c r="D4" t="n">
-        <v>55</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33372</v>
-      </c>
-      <c r="F4" t="n">
-        <v>44674.46</v>
-      </c>
-      <c r="G4" t="n">
-        <v>470602.73</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8984.790000000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>137230.79</v>
-      </c>
-      <c r="J4" t="n">
-        <v>146</v>
-      </c>
-      <c r="K4" t="n">
-        <v>74138.84</v>
-      </c>
-      <c r="L4" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="M4" t="n">
-        <v>170085.68</v>
-      </c>
-      <c r="N4" t="n">
-        <v>83.25</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
-        <v>331.9</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>220.89</v>
-      </c>
-      <c r="R4" t="n">
-        <v>926.75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>1231</v>
-      </c>
-      <c r="D5" t="n">
-        <v>642</v>
-      </c>
-      <c r="E5" t="n">
-        <v>46951</v>
-      </c>
-      <c r="F5" t="n">
-        <v>97794</v>
-      </c>
-      <c r="G5" t="n">
-        <v>730240</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9865</v>
-      </c>
-      <c r="I5" t="n">
-        <v>160994</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>68344</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1274</v>
-      </c>
-      <c r="M5" t="n">
-        <v>336614</v>
-      </c>
-      <c r="N5" t="n">
-        <v>249</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5450</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>215</v>
-      </c>
-      <c r="R5" t="n">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>1607.03</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>27529.64</v>
-      </c>
-      <c r="F6" t="n">
-        <v>224271.75</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1660812.26</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8431.66</v>
-      </c>
-      <c r="I6" t="n">
-        <v>241899.75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>20</v>
-      </c>
-      <c r="K6" t="n">
-        <v>81647.72</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1007.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1045308.8</v>
-      </c>
-      <c r="N6" t="n">
-        <v>17722.11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>9731.549999999999</v>
-      </c>
-      <c r="P6" t="n">
-        <v>351.7</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>63.65</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1219.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>246</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>120401</v>
-      </c>
-      <c r="F7" t="n">
-        <v>276801</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1327413</v>
-      </c>
-      <c r="H7" t="n">
-        <v>25396</v>
-      </c>
-      <c r="I7" t="n">
-        <v>412116</v>
-      </c>
-      <c r="J7" t="n">
-        <v>11076</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9053</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1546</v>
-      </c>
-      <c r="M7" t="n">
-        <v>424451</v>
-      </c>
-      <c r="N7" t="n">
-        <v>19457</v>
-      </c>
-      <c r="O7" t="n">
-        <v>21743</v>
-      </c>
-      <c r="P7" t="n">
-        <v>291</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
-        <v>3787</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>795.8200000000001</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1074.25</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>137121.96</v>
-      </c>
-      <c r="F8" t="n">
-        <v>376923.97</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1801064.16</v>
-      </c>
-      <c r="H8" t="n">
-        <v>30431.68</v>
-      </c>
-      <c r="I8" t="n">
-        <v>591143.38</v>
-      </c>
-      <c r="J8" t="n">
-        <v>12343.57</v>
-      </c>
-      <c r="K8" t="n">
-        <v>101718.21</v>
-      </c>
-      <c r="L8" t="n">
-        <v>186.51</v>
-      </c>
-      <c r="M8" t="n">
-        <v>464663.66</v>
-      </c>
-      <c r="N8" t="n">
-        <v>27356</v>
-      </c>
-      <c r="O8" t="n">
-        <v>42690.14</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>11151.77</v>
-      </c>
-      <c r="R8" t="n">
         <v>3463.24</v>
       </c>
     </row>
